--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -85,16 +88,7 @@
     <t>Fgfr4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.8537625</v>
+        <v>0.2355055</v>
       </c>
       <c r="H2">
-        <v>3.707525</v>
+        <v>0.471011</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.4030655</v>
+        <v>0.09215</v>
       </c>
       <c r="N2">
-        <v>0.8061309999999999</v>
+        <v>0.1843</v>
       </c>
       <c r="O2">
-        <v>0.01062191174620465</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P2">
-        <v>0.01057308397011603</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q2">
-        <v>0.74718770894375</v>
+        <v>0.021701831825</v>
       </c>
       <c r="R2">
-        <v>2.988750835775</v>
+        <v>0.0868073273</v>
       </c>
       <c r="S2">
-        <v>0.01062191174620465</v>
+        <v>0.002145242385104102</v>
       </c>
       <c r="T2">
-        <v>0.01057308397011603</v>
+        <v>0.0021325614414267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -602,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.8537625</v>
+        <v>0.2355055</v>
       </c>
       <c r="H3">
-        <v>3.707525</v>
+        <v>0.471011</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +620,22 @@
         <v>0.321089</v>
       </c>
       <c r="O3">
-        <v>0.002820533321653764</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P3">
-        <v>0.004211351453895939</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q3">
-        <v>0.1984075824541667</v>
+        <v>0.02520607516316667</v>
       </c>
       <c r="R3">
-        <v>1.190445494725</v>
+        <v>0.151236450979</v>
       </c>
       <c r="S3">
-        <v>0.002820533321653764</v>
+        <v>0.00249163947256535</v>
       </c>
       <c r="T3">
-        <v>0.004211351453895939</v>
+        <v>0.003715366362812032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +643,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -664,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.8537625</v>
+        <v>0.2355055</v>
       </c>
       <c r="H4">
-        <v>3.707525</v>
+        <v>0.471011</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,43 +676,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.1930565</v>
+        <v>8.80044</v>
       </c>
       <c r="N4">
-        <v>74.38611300000001</v>
+        <v>17.60088</v>
       </c>
       <c r="O4">
-        <v>0.9801418472049912</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P4">
-        <v>0.9756362414539821</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q4">
-        <v>68.94709340008126</v>
+        <v>2.07255202242</v>
       </c>
       <c r="R4">
-        <v>275.788373600325</v>
+        <v>8.29020808968</v>
       </c>
       <c r="S4">
-        <v>0.9801418472049912</v>
+        <v>0.2048733249654427</v>
       </c>
       <c r="T4">
-        <v>0.9756362414539821</v>
+        <v>0.2036622790188734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>2</v>
       </c>
@@ -726,108 +720,170 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.8537625</v>
+        <v>0.888571</v>
       </c>
       <c r="H5">
-        <v>3.707525</v>
+        <v>1.777142</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7904897931768879</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7904897931768879</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1809256666666667</v>
+        <v>0.09215</v>
       </c>
       <c r="N5">
-        <v>0.5427770000000001</v>
+        <v>0.1843</v>
       </c>
       <c r="O5">
-        <v>0.004767901157396439</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P5">
-        <v>0.0071189754494588</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q5">
-        <v>0.3353932161541667</v>
+        <v>0.08188181764999999</v>
       </c>
       <c r="R5">
-        <v>2.012359296925</v>
+        <v>0.3275272706</v>
       </c>
       <c r="S5">
-        <v>0.004767901157396439</v>
+        <v>0.008094079209930711</v>
       </c>
       <c r="T5">
-        <v>0.0071189754494588</v>
+        <v>0.008046233538367316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.888571</v>
+      </c>
+      <c r="H6">
+        <v>1.777142</v>
+      </c>
+      <c r="I6">
+        <v>0.7904897931768879</v>
+      </c>
+      <c r="J6">
+        <v>0.7904897931768879</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.321089</v>
+      </c>
+      <c r="O6">
+        <v>0.01189268776136058</v>
+      </c>
+      <c r="P6">
+        <v>0.01773358166721151</v>
+      </c>
+      <c r="Q6">
+        <v>0.09510345793966668</v>
+      </c>
+      <c r="R6">
+        <v>0.570620747638</v>
+      </c>
+      <c r="S6">
+        <v>0.009401048288795235</v>
+      </c>
+      <c r="T6">
+        <v>0.01401821530439947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.8537625</v>
-      </c>
-      <c r="H6">
-        <v>3.707525</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.06252866666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.187586</v>
-      </c>
-      <c r="O6">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="P6">
-        <v>0.002460347672547249</v>
-      </c>
-      <c r="Q6">
-        <v>0.1159132974416667</v>
-      </c>
-      <c r="R6">
-        <v>0.69547978465</v>
-      </c>
-      <c r="S6">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="T6">
-        <v>0.002460347672547249</v>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.888571</v>
+      </c>
+      <c r="H7">
+        <v>1.777142</v>
+      </c>
+      <c r="I7">
+        <v>0.7904897931768879</v>
+      </c>
+      <c r="J7">
+        <v>0.7904897931768879</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.80044</v>
+      </c>
+      <c r="N7">
+        <v>17.60088</v>
+      </c>
+      <c r="O7">
+        <v>0.9778679906436047</v>
+      </c>
+      <c r="P7">
+        <v>0.9720876233529945</v>
+      </c>
+      <c r="Q7">
+        <v>7.81981577124</v>
+      </c>
+      <c r="R7">
+        <v>31.27926308496</v>
+      </c>
+      <c r="S7">
+        <v>0.7729946656781621</v>
+      </c>
+      <c r="T7">
+        <v>0.7684253443341211</v>
       </c>
     </row>
   </sheetData>
